--- a/Data/user.xlsx
+++ b/Data/user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Documents/VS Code/SD-Auswertung/Excel Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Python/Superdepot Reporting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD7A71-821C-8D44-A5E8-6E91D3DA1E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF1F81-2E53-4E4E-92BE-2BED09E3AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="2000" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -83,13 +83,25 @@
   </si>
   <si>
     <t>Stefanie Wolfrum</t>
+  </si>
+  <si>
+    <t>LA - Martina Wallor</t>
+  </si>
+  <si>
+    <t>LA - Maik Broge</t>
+  </si>
+  <si>
+    <t>Dominik Neuner</t>
+  </si>
+  <si>
+    <t>Raimund Neubing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,21 +116,46 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF31333F"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,45 +170,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -182,8 +188,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -492,238 +502,274 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>85139004</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>85139053</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>85138910</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>85139259</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>85139619</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>85139503</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>85139383</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>85139437</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>85139499</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>85139155</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>85139386</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>85139258</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>85147218</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>81233486</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>85036550</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>81039309</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>85011548</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19"/>
     </row>
   </sheetData>

--- a/Data/user.xlsx
+++ b/Data/user.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Python/Superdepot Reporting/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Python/Superdepot Reporting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEF1F81-2E53-4E4E-92BE-2BED09E3AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDD1698-92FC-8748-935D-469783D1B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2000" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Tabelle2!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Tabelle2!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>One ID</t>
   </si>
@@ -37,9 +34,6 @@
     <t>Funktion</t>
   </si>
   <si>
-    <t>Passwort</t>
-  </si>
-  <si>
     <t>Bernd Schwing</t>
   </si>
   <si>
@@ -95,25 +89,31 @@
   </si>
   <si>
     <t>Raimund Neubing</t>
+  </si>
+  <si>
+    <t>Unternehmen</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>Super-Depot</t>
+  </si>
+  <si>
+    <t>Fachbereich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,24 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,275 +496,326 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>85139004</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>85139004</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>85139053</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>85138910</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>85139053</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>85139259</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>85138910</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>85139619</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>85139259</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>85139503</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>85139619</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>85139503</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>85139383</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>85139437</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>85139383</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>85139499</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>85139437</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>85139155</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>85139499</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>85139386</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>85139155</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>85139258</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>85139386</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>85147218</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>85139258</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>81233486</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>85147218</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>85036550</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>81233486</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>81039309</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>85036550</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>85011548</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>81039309</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>85011548</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C19"/>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
